--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1145941.229415791</v>
+        <v>1139895.503855125</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10871827.57914585</v>
+        <v>11128260.55082949</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>257.658698390161</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>97.87218245768398</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>30.09519610355542</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>8.906162259192037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>36.34690181272053</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>184.1481152416521</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>264.617109250698</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>341.5003631777251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>151.1852629778874</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>276.4896811987706</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>56.03635866484639</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>38.86608569165942</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>212.532379305912</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.82891891787546</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>146.185049953102</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>100.781511665774</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>2.029664035374494</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>135.3135037226529</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>9.570729811036321</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.7084378797731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>184.8190037993207</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1202.59552936621</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.59552936621</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>2463.478538038858</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>2463.478538038858</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847234</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="Y2" t="n">
-        <v>1462.856840871423</v>
+        <v>1699.873447801967</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>182.9275483748796</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>367.6491696559297</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.2467865680031</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>971.281412372397</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>560.2955075827895</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>145.2230574277859</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4585,7 +4585,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2823.329208306698</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2823.329208306698</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.560553036583</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.094794775503</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.721581898233</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>902.0370936923462</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>612.6199236553855</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>384.6303727573681</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810562</v>
@@ -4813,19 +4813,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930991</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>782.4929502983421</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>613.5567673704352</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>463.4401279580994</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>463.4401279580994</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>316.550180460189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983421</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983421</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.4929502983421</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1458.811090838974</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1089.848573898563</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>731.5828752918121</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>345.7946226935679</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410102</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139988</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2235.550262878908</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.410930903096</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2323.31499734292</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2103.713532365861</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1814.638305710059</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1659.057359339774</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1290.094842399363</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>931.8291437926121</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>931.8291437926121</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>520.8432390030046</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>105.770788848001</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993393</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649822</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2435.796531379708</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2435.796531379708</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2045.657199403896</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068011</v>
@@ -5773,10 +5773,10 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3118.738694571971</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C22" t="n">
-        <v>2949.802511644064</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D22" t="n">
-        <v>2799.685872231729</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649336</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151425</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4293.270947686606</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4293.270947686606</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4038.586459480719</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3749.169289443758</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X22" t="n">
-        <v>3521.179738545741</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y22" t="n">
-        <v>3300.387159402211</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,22 +6244,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,16 +6317,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3160.164713532175</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>3160.164713532175</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3160.164713532175</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6715,19 +6715,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6928,34 +6928,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399322</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3658.217393399322</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>229.7425191625314</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998291</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998291</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,28 +7399,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>70.03064962107905</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363235</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>130.3863645429408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>124.9899273367982</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>255.7416786956611</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>6.052274046182816</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260413</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>191.8807364711617</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>71.22040037418631</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>146.5858089828379</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>13.3019692955595</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>10.85445046951733</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>67.31863952450729</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810492.3420568486</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810492.3420568487</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957546.4141109423</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165587</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="L2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121056</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598204</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605439</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545141</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091475</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091475</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873520.9487510233</v>
+        <v>-873520.9487510235</v>
       </c>
       <c r="C6" t="n">
-        <v>71592.15640534407</v>
+        <v>71592.15640534395</v>
       </c>
       <c r="D6" t="n">
         <v>275030.8980174497</v>
       </c>
       <c r="E6" t="n">
-        <v>308069.9201530739</v>
+        <v>27279.77961436509</v>
       </c>
       <c r="F6" t="n">
-        <v>308069.9201530741</v>
+        <v>352692.2414217208</v>
       </c>
       <c r="G6" t="n">
-        <v>43196.58721625729</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="H6" t="n">
-        <v>353039.6206760777</v>
+        <v>352692.2414217209</v>
       </c>
       <c r="I6" t="n">
-        <v>353039.6206760777</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="J6" t="n">
-        <v>185434.4428660952</v>
+        <v>185087.0636117382</v>
       </c>
       <c r="K6" t="n">
-        <v>303929.5279700232</v>
+        <v>303582.1487156663</v>
       </c>
       <c r="L6" t="n">
-        <v>353039.6206760776</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="M6" t="n">
-        <v>353039.6206760776</v>
+        <v>267637.2134862088</v>
       </c>
       <c r="N6" t="n">
-        <v>353039.6206760776</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="O6" t="n">
-        <v>270903.7900806263</v>
+        <v>352692.2414217207</v>
       </c>
       <c r="P6" t="n">
-        <v>353039.6206760778</v>
+        <v>352692.2414217207</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483759</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>190.8166233022536</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>190.8166233022539</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697356</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697356</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.0751432733196</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.8800760124509</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>216.8034931298451</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>258.2608625745999</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>66.84705671724987</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>21.59472895491484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.23347848575548</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>14.84054528114078</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>551.7051287319844</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>302.5540177178164</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>522.1224556861822</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>133.0108705119965</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,10 +34786,10 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291975</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>409.1088842875399</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>171.2123056344831</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>379.5262112417378</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139895.503855125</v>
+        <v>1143050.423197347</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11128260.55082949</v>
+        <v>10871827.57914585</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.9193059650779</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.87218245768398</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>30.09519610355542</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>142.694654802106</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>114.9470312412299</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>36.34690181272053</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4530101301292</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>17.35112070699578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>131.3542190999263</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>261.3067342683331</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>90.41948680756566</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>56.03635866484639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>396.2429621606558</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>35.38118346019173</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.532379305912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>100.781511665774</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>214.85520491952</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>2.029664035374494</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>94.91529601901387</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>9.570729811036321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.273607737845</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>1862.313924116173</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1504.048225509423</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1118.259972911178</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>707.2740681215707</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>291.5693178458596</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2463.478538038858</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>2463.478538038858</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.012779777779</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y2" t="n">
-        <v>1699.873447801967</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>182.9275483748796</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>367.6491696559297</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>662.3527266874014</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.614745646621</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657496</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378427</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>397.5455328255069</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>249.6324392431138</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1492.310105122875</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1269.331624317611</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.509627919559</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.547110979147</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="D5" t="n">
-        <v>971.281412372397</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>971.281412372397</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>560.2955075827895</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>145.2230574277859</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="6">
@@ -4752,13 +4752,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V7" t="n">
         <v>1767.918581386758</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1942.56751757296</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2329.167357637082</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.1060525954244</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2323.31499734292</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>2103.713532365861</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1814.638305710059</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.953817504172</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.536647467212</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.547096569194</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.7545174256642</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>764.341133147311</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>844.171363847817</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.6907003535711</v>
+        <v>844.171363847817</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142544</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142544</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>701.4712640439268</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>532.5350811160199</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>382.4184417036842</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1331.901858915714</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1103.912308017697</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>883.1197288741665</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6083,13 +6083,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856862</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577793</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656159</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C34" t="n">
-        <v>782.841029837709</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7791,13 +7791,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>70.03064962107905</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>186.5911984019042</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>103.9661575026744</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>54.33552810675512</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>124.9899273367982</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>14.6787634927976</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>190.3284719288454</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.052274046182816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>37.12601365260413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>185.741486670817</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.5858089828379</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>138.4949402405074</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>211.1765892730638</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>45.37941682721002</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>957546.4141109422</v>
+        <v>810492.3420568486</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957546.4141109422</v>
+        <v>810492.3420568486</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="G2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="G2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="I2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217539</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873520.9487510235</v>
+        <v>-873520.9487510234</v>
       </c>
       <c r="C6" t="n">
-        <v>71592.15640534395</v>
+        <v>71592.15640534383</v>
       </c>
       <c r="D6" t="n">
-        <v>275030.8980174497</v>
+        <v>275030.8980174496</v>
       </c>
       <c r="E6" t="n">
-        <v>27279.77961436509</v>
+        <v>307722.3012232681</v>
       </c>
       <c r="F6" t="n">
-        <v>352692.2414217208</v>
+        <v>307722.3012232678</v>
       </c>
       <c r="G6" t="n">
-        <v>352692.2414217207</v>
+        <v>43161.84929082225</v>
       </c>
       <c r="H6" t="n">
-        <v>352692.2414217209</v>
+        <v>353004.8827506419</v>
       </c>
       <c r="I6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.882750642</v>
       </c>
       <c r="J6" t="n">
-        <v>185087.0636117382</v>
+        <v>185399.7049406594</v>
       </c>
       <c r="K6" t="n">
-        <v>303582.1487156663</v>
+        <v>303894.7900445875</v>
       </c>
       <c r="L6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.882750642</v>
       </c>
       <c r="M6" t="n">
-        <v>267637.2134862088</v>
+        <v>353004.882750642</v>
       </c>
       <c r="N6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.8827506421</v>
       </c>
       <c r="O6" t="n">
-        <v>352692.2414217207</v>
+        <v>270869.0521551908</v>
       </c>
       <c r="P6" t="n">
-        <v>352692.2414217207</v>
+        <v>353004.882750642</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="E4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>63.09924659732746</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>229.8800760124509</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>115.3258519193758</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>51.9678055596315</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>239.736010379453</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>258.2608625745999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>31.98681829672469</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.2808315333514</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>331.8898480104172</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>154.8576191056866</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>303.4297552732306</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>133.0108705119965</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>577.7882979947782</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>160.8335108287862</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
